--- a/modamizbir/stok-bilgisi.xlsx
+++ b/modamizbir/stok-bilgisi.xlsx
@@ -1337,7 +1337,7 @@
         <v>50</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>71</v>
@@ -1364,7 +1364,7 @@
         <v>50</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
         <v>72</v>
@@ -1391,13 +1391,13 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>73</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
         <v>86</v>
@@ -1472,7 +1472,7 @@
         <v>52</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
@@ -1499,7 +1499,7 @@
         <v>52</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
         <v>72</v>
@@ -1526,13 +1526,13 @@
         <v>52</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
         <v>73</v>
       </c>
       <c r="G32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
         <v>88</v>
@@ -1553,7 +1553,7 @@
         <v>52</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
         <v>76</v>
@@ -1742,13 +1742,13 @@
         <v>53</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>71</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>84</v>
@@ -1769,7 +1769,7 @@
         <v>53</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>72</v>
@@ -1796,7 +1796,7 @@
         <v>53</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>73</v>
@@ -2282,13 +2282,13 @@
         <v>57</v>
       </c>
       <c r="E60">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
         <v>74</v>
       </c>
       <c r="G60">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s">
         <v>85</v>
@@ -2309,7 +2309,7 @@
         <v>57</v>
       </c>
       <c r="E61">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
         <v>75</v>
@@ -2336,13 +2336,13 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
         <v>74</v>
       </c>
       <c r="G62">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H62" t="s">
         <v>85</v>
@@ -2363,7 +2363,7 @@
         <v>60</v>
       </c>
       <c r="E63">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F63" t="s">
         <v>75</v>
@@ -2390,13 +2390,13 @@
         <v>47</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>74</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>85</v>
@@ -2417,7 +2417,7 @@
         <v>47</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>75</v>
@@ -2579,7 +2579,7 @@
         <v>48</v>
       </c>
       <c r="E71">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F71" t="s">
         <v>71</v>
@@ -2606,13 +2606,13 @@
         <v>48</v>
       </c>
       <c r="E72">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
         <v>72</v>
       </c>
       <c r="G72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H72" t="s">
         <v>93</v>
@@ -2633,7 +2633,7 @@
         <v>48</v>
       </c>
       <c r="E73">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
         <v>73</v>
@@ -2822,13 +2822,13 @@
         <v>52</v>
       </c>
       <c r="E80">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="F80" t="s">
         <v>71</v>
       </c>
       <c r="G80">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
         <v>85</v>
@@ -2849,13 +2849,13 @@
         <v>52</v>
       </c>
       <c r="E81">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="F81" t="s">
         <v>72</v>
       </c>
       <c r="G81">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="H81" t="s">
         <v>85</v>
@@ -2876,7 +2876,7 @@
         <v>52</v>
       </c>
       <c r="E82">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="F82" t="s">
         <v>73</v>
@@ -2903,13 +2903,13 @@
         <v>52</v>
       </c>
       <c r="E83">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="F83" t="s">
         <v>76</v>
       </c>
       <c r="G83">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H83" t="s">
         <v>85</v>
@@ -2930,7 +2930,7 @@
         <v>52</v>
       </c>
       <c r="E84">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
         <v>71</v>
@@ -2957,7 +2957,7 @@
         <v>52</v>
       </c>
       <c r="E85">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
         <v>72</v>
@@ -2984,13 +2984,13 @@
         <v>52</v>
       </c>
       <c r="E86">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F86" t="s">
         <v>73</v>
       </c>
       <c r="G86">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H86" t="s">
         <v>85</v>
@@ -3011,7 +3011,7 @@
         <v>52</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F87" t="s">
         <v>71</v>
@@ -3038,7 +3038,7 @@
         <v>52</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
         <v>72</v>
@@ -3065,13 +3065,13 @@
         <v>52</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F89" t="s">
         <v>73</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>85</v>
@@ -3092,7 +3092,7 @@
         <v>47</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
         <v>79</v>
@@ -3119,7 +3119,7 @@
         <v>47</v>
       </c>
       <c r="E91">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
         <v>80</v>
@@ -3146,13 +3146,13 @@
         <v>47</v>
       </c>
       <c r="E92">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
         <v>81</v>
       </c>
       <c r="G92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H92" t="s">
         <v>94</v>
@@ -3173,7 +3173,7 @@
         <v>47</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
         <v>82</v>
@@ -3200,7 +3200,7 @@
         <v>47</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>81</v>
@@ -3227,13 +3227,13 @@
         <v>47</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>80</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>94</v>
@@ -3254,7 +3254,7 @@
         <v>47</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>79</v>
@@ -3281,7 +3281,7 @@
         <v>47</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>82</v>
@@ -3389,13 +3389,13 @@
         <v>50</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="s">
         <v>71</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>95</v>
@@ -3416,7 +3416,7 @@
         <v>50</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
         <v>72</v>
@@ -3443,7 +3443,7 @@
         <v>50</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="s">
         <v>73</v>
@@ -3470,13 +3470,13 @@
         <v>47</v>
       </c>
       <c r="E104">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
         <v>71</v>
       </c>
       <c r="G104">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H104" t="s">
         <v>95</v>
@@ -3497,7 +3497,7 @@
         <v>47</v>
       </c>
       <c r="E105">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F105" t="s">
         <v>72</v>
@@ -3524,7 +3524,7 @@
         <v>47</v>
       </c>
       <c r="E106">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F106" t="s">
         <v>73</v>
@@ -3605,13 +3605,13 @@
         <v>57</v>
       </c>
       <c r="E109">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F109" t="s">
         <v>74</v>
       </c>
       <c r="G109">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H109" t="s">
         <v>85</v>
@@ -3632,13 +3632,13 @@
         <v>57</v>
       </c>
       <c r="E110">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F110" t="s">
         <v>75</v>
       </c>
       <c r="G110">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H110" t="s">
         <v>85</v>

--- a/modamizbir/stok-bilgisi.xlsx
+++ b/modamizbir/stok-bilgisi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="102">
   <si>
     <t>Link</t>
   </si>
@@ -157,6 +157,9 @@
     <t>Bisküvi Fitilli Bayan Tayt</t>
   </si>
   <si>
+    <t>Ten Rugan Kadın Stiletto</t>
+  </si>
+  <si>
     <t>Mavi</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>Lila</t>
   </si>
   <si>
+    <t>Ten</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -265,6 +271,15 @@
     <t>44</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>59.35 ₺</t>
   </si>
   <si>
@@ -302,6 +317,9 @@
   </si>
   <si>
     <t>25.87 ₺</t>
+  </si>
+  <si>
+    <t>86.35 ₺</t>
   </si>
 </sst>
 </file>
@@ -659,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -713,19 +731,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -740,19 +758,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -767,19 +785,19 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -794,19 +812,19 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -821,19 +839,19 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -848,19 +866,19 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -875,19 +893,19 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -902,19 +920,19 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -929,19 +947,19 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -956,19 +974,19 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -983,19 +1001,19 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1010,19 +1028,19 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1037,19 +1055,19 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1064,19 +1082,19 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1091,19 +1109,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1118,19 +1136,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1145,19 +1163,19 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G18">
         <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1172,19 +1190,19 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1199,19 +1217,19 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1226,19 +1244,19 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G21">
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1253,19 +1271,19 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1280,19 +1298,19 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G23">
         <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1307,19 +1325,19 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G24">
         <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1334,19 +1352,19 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1361,19 +1379,19 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1388,19 +1406,19 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1415,19 +1433,19 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1442,19 +1460,19 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1469,19 +1487,19 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1496,19 +1514,19 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1523,19 +1541,19 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1550,19 +1568,19 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1577,19 +1595,19 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1604,19 +1622,19 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1631,19 +1649,19 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1658,19 +1676,19 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1685,19 +1703,19 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1712,19 +1730,19 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1739,19 +1757,19 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1766,19 +1784,19 @@
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1793,19 +1811,19 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1820,19 +1838,19 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1847,19 +1865,19 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1874,19 +1892,19 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1901,19 +1919,19 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1928,19 +1946,19 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1955,19 +1973,19 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1982,19 +2000,19 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2009,19 +2027,19 @@
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2036,19 +2054,19 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2063,19 +2081,19 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2090,19 +2108,19 @@
         <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2117,19 +2135,19 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2144,19 +2162,19 @@
         <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2171,19 +2189,19 @@
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2198,19 +2216,19 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2225,19 +2243,19 @@
         <v>28</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2252,19 +2270,19 @@
         <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E59">
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G59">
         <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2279,19 +2297,19 @@
         <v>29</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E60">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G60">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2306,19 +2324,19 @@
         <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E61">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2333,19 +2351,19 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G62">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2360,19 +2378,19 @@
         <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E63">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2387,19 +2405,19 @@
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2414,19 +2432,19 @@
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2441,19 +2459,19 @@
         <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2468,19 +2486,19 @@
         <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2495,19 +2513,19 @@
         <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E68">
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G68">
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2522,19 +2540,19 @@
         <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E69">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2549,19 +2567,19 @@
         <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E70">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2576,19 +2594,19 @@
         <v>34</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E71">
         <v>73</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G71">
         <v>42</v>
       </c>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2603,19 +2621,19 @@
         <v>34</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E72">
         <v>73</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G72">
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2630,19 +2648,19 @@
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E73">
         <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G73">
         <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2657,19 +2675,19 @@
         <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E74">
         <v>72</v>
       </c>
       <c r="F74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G74">
         <v>33</v>
       </c>
       <c r="H74" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2684,19 +2702,19 @@
         <v>35</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E75">
         <v>72</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G75">
         <v>39</v>
       </c>
       <c r="H75" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2711,19 +2729,19 @@
         <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E76">
         <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2738,19 +2756,19 @@
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2765,19 +2783,19 @@
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2792,19 +2810,19 @@
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2819,19 +2837,19 @@
         <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E80">
-        <v>656</v>
+        <v>593</v>
       </c>
       <c r="F80" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G80">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2846,19 +2864,19 @@
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E81">
-        <v>656</v>
+        <v>593</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G81">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="H81" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2873,19 +2891,19 @@
         <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E82">
-        <v>656</v>
+        <v>593</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2900,19 +2918,19 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E83">
-        <v>656</v>
+        <v>593</v>
       </c>
       <c r="F83" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2927,19 +2945,19 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E84">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2954,19 +2972,19 @@
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E85">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2981,19 +2999,19 @@
         <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E86">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G86">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H86" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3008,19 +3026,19 @@
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3035,19 +3053,19 @@
         <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3062,19 +3080,19 @@
         <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3089,19 +3107,19 @@
         <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G90">
         <v>23</v>
       </c>
       <c r="H90" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3116,19 +3134,19 @@
         <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E91">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F91" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G91">
         <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3143,19 +3161,19 @@
         <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E92">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3170,19 +3188,19 @@
         <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E93">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3197,19 +3215,19 @@
         <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3224,19 +3242,19 @@
         <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3251,19 +3269,19 @@
         <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3278,19 +3296,19 @@
         <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3305,19 +3323,19 @@
         <v>42</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3332,19 +3350,19 @@
         <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3359,19 +3377,19 @@
         <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3386,19 +3404,19 @@
         <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3413,19 +3431,19 @@
         <v>43</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3440,19 +3458,19 @@
         <v>43</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3467,19 +3485,19 @@
         <v>44</v>
       </c>
       <c r="D104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G104">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H104" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3494,19 +3512,19 @@
         <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3521,19 +3539,19 @@
         <v>44</v>
       </c>
       <c r="D106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E106">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3548,19 +3566,19 @@
         <v>45</v>
       </c>
       <c r="D107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3575,19 +3593,19 @@
         <v>45</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3602,19 +3620,19 @@
         <v>46</v>
       </c>
       <c r="D109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E109">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G109">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H109" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3629,19 +3647,154 @@
         <v>46</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E110">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F110" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G110">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H110" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <f>Hyperlink("https://www.modamizbir.com/ten-rugan-kadin-stiletto-85337","Ürün")</f>
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>85337</v>
+      </c>
+      <c r="C111" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
         <v>85</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <f>Hyperlink("https://www.modamizbir.com/ten-rugan-kadin-stiletto-85337","Ürün")</f>
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>85337</v>
+      </c>
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" t="s">
+        <v>65</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>86</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <f>Hyperlink("https://www.modamizbir.com/ten-rugan-kadin-stiletto-85337","Ürün")</f>
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>85337</v>
+      </c>
+      <c r="C113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>81</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <f>Hyperlink("https://www.modamizbir.com/ten-rugan-kadin-stiletto-85337","Ürün")</f>
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>85337</v>
+      </c>
+      <c r="C114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" t="s">
+        <v>65</v>
+      </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
+        <v>87</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <f>Hyperlink("https://www.modamizbir.com/ten-rugan-kadin-stiletto-85337","Ürün")</f>
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>85337</v>
+      </c>
+      <c r="C115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
+        <v>82</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
